--- a/discipline_analysis.xlsx
+++ b/discipline_analysis.xlsx
@@ -273,7 +273,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Numbers</a:t>
+                  <a:t>Proposals</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -410,7 +410,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Numbers</a:t>
+                  <a:t>Proposals</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -547,7 +547,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Numbers</a:t>
+                  <a:t>Proposals</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -684,7 +684,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Numbers</a:t>
+                  <a:t>Proposals</a:t>
                 </a:r>
               </a:p>
             </rich>

--- a/discipline_analysis.xlsx
+++ b/discipline_analysis.xlsx
@@ -1272,7 +1272,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Physics</t>
+          <t>Physics</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1288,7 +1288,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Life sciences</t>
+          <t>Life sciences</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1304,7 +1304,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Earth sciences</t>
+          <t>Earth sciences</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1320,7 +1320,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Information Technology</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1336,7 +1336,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mathematics</t>
+          <t>Mathematics</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1352,7 +1352,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biology</t>
+          <t>Biology</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1368,7 +1368,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Astronomy</t>
+          <t>Astronomy</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1384,7 +1384,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Enviormental Sciences</t>
+          <t>Enviormental Sciences</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1442,7 +1442,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Physics/Chemistry/</t>
+          <t>Physics, Chemistry</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1458,7 +1458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biology/Life sciences/</t>
+          <t>Biology, Life sciences</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1474,7 +1474,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Earth sciences/Biology/</t>
+          <t>Earth sciences, Biology</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1490,7 +1490,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Life sciences/Physics/</t>
+          <t>Life sciences, Physics</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1506,7 +1506,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Life sciences/Physics/Chemistry/</t>
+          <t>Life sciences, Physics, Chemistry</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1522,7 +1522,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biology/Life sciences/Physics/</t>
+          <t>Biology, Life sciences, Physics</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1538,7 +1538,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Information Technology/Mathematics/</t>
+          <t>Information Technology, Mathematics</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1554,7 +1554,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Information Technology/Life sciences/Chemistry/</t>
+          <t>Information Technology, Life sciences, Chemistry</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1570,7 +1570,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Earth sciences/Astronomy/</t>
+          <t>Earth sciences, Astronomy</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1586,7 +1586,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biology/Life sciences/Enviormental Sciences/</t>
+          <t>Biology, Life sciences, Enviormental Sciences</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1602,7 +1602,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Physics/Astronomy/</t>
+          <t>Physics, Astronomy</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1618,7 +1618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Information Technology/Chemistry/</t>
+          <t>Information Technology, Chemistry</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1634,7 +1634,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biology/Life sciences/Chemistry/</t>
+          <t>Biology, Life sciences, Chemistry</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1650,7 +1650,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biology/Information Technology/Life sciences/Enviormental Sciences/</t>
+          <t>Biology, Information Technology, Life sciences, Enviormental Sciences</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1666,7 +1666,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biology/Chemistry/</t>
+          <t>Biology, Chemistry</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1682,7 +1682,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Earth sciences/Biology/Enviormental Sciences/Chemistry/</t>
+          <t>Earth sciences, Biology, Enviormental Sciences, Chemistry</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1698,7 +1698,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Information Technology/Physics/Astronomy/</t>
+          <t>Information Technology, Physics, Astronomy</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1714,7 +1714,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Information Technology/Physics/</t>
+          <t>Information Technology, Physics</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1730,7 +1730,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Life sciences/Chemistry/</t>
+          <t>Life sciences, Chemistry</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1746,7 +1746,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Physics/Astronomy/Mathematics/</t>
+          <t>Physics, Astronomy, Mathematics</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1762,7 +1762,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Information Technology/Physics/Astronomy/Mathematics/</t>
+          <t>Information Technology, Physics, Astronomy, Mathematics</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1820,7 +1820,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medicine/Life sciences/</t>
+          <t>Medicine, Life sciences</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1836,7 +1836,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biology/Information Technology/Technical Sciences/</t>
+          <t>Biology, Information Technology, Technical Sciences</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1852,7 +1852,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biology/Life sciences/Physics/Technical Sciences/</t>
+          <t>Biology, Life sciences, Physics, Technical Sciences</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1868,7 +1868,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medicine/Life sciences/Physics/Technical Sciences/</t>
+          <t>Medicine, Life sciences, Physics, Technical Sciences</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1884,7 +1884,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biology/Medicine/Life sciences/Enviormental Sciences/</t>
+          <t>Biology, Medicine, Life sciences, Enviormental Sciences</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1900,7 +1900,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biology/Medicine/Life sciences/Mathematics/</t>
+          <t>Biology, Medicine, Life sciences, Mathematics</t>
         </is>
       </c>
       <c r="B7" t="n">
